--- a/ResultadoEleicoesDistritos/LISBOA_CADAVAL.xlsx
+++ b/ResultadoEleicoesDistritos/LISBOA_CADAVAL.xlsx
@@ -597,64 +597,64 @@
         <v>3681</v>
       </c>
       <c r="H2" t="n">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="I2" t="n">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="J2" t="n">
-        <v>1472</v>
+        <v>1531</v>
       </c>
       <c r="K2" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>440</v>
+        <v>413</v>
       </c>
       <c r="M2" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N2" t="n">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>21</v>
+      </c>
+      <c r="S2" t="n">
+        <v>181</v>
+      </c>
+      <c r="T2" t="n">
+        <v>240</v>
+      </c>
+      <c r="U2" t="n">
+        <v>20</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2350</v>
+      </c>
+      <c r="W2" t="n">
         <v>2</v>
       </c>
-      <c r="R2" t="n">
-        <v>22</v>
-      </c>
-      <c r="S2" t="n">
-        <v>192</v>
-      </c>
-      <c r="T2" t="n">
-        <v>280</v>
-      </c>
-      <c r="U2" t="n">
-        <v>13</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2401</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
       <c r="X2" t="n">
-        <v>2321</v>
+        <v>2382</v>
       </c>
       <c r="Y2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z2" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AA2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
